--- a/biology/Médecine/Fluorose_osseuse/Fluorose_osseuse.xlsx
+++ b/biology/Médecine/Fluorose_osseuse/Fluorose_osseuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fluorose osseuse est une maladie osseuse causée par une quantité excessive de fluor dans les os[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fluorose osseuse est une maladie osseuse causée par une quantité excessive de fluor dans les os.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fluor peut entrainer des difformités osseuses : genu valgum, genu varum, ostéoporose, osteosclérose, ciphose[2],[3],[4],[5],[6].
-Le fluor peut entrainer une attitude dite "poker back"[7],[8], une impossibilité à effectuer un squat (position)[9], une respiration abdominale[9] et une capacité respiratoire réduite[10], de l'ostéoporose[10],[11].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fluor peut entrainer des difformités osseuses : genu valgum, genu varum, ostéoporose, osteosclérose, ciphose.
+Le fluor peut entrainer une attitude dite "poker back" une impossibilité à effectuer un squat (position), une respiration abdominale et une capacité respiratoire réduite, de l'ostéoporose,.
 </t>
         </is>
       </c>
